--- a/Documents/Project Work Status.xlsx
+++ b/Documents/Project Work Status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="High level Requirement Status" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Activity/Fragment  Name</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>E.No</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Webservice</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,9 +532,10 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -544,8 +554,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -555,11 +568,18 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -569,11 +589,18 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -583,11 +610,18 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1.2</v>
       </c>
@@ -597,11 +631,18 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -611,11 +652,18 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>2.1</v>
       </c>
@@ -625,11 +673,14 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -639,11 +690,14 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -653,11 +707,14 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>2.4</v>
       </c>
@@ -667,11 +724,14 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>2.5</v>
       </c>
@@ -679,11 +739,14 @@
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>2.6</v>
       </c>
@@ -691,11 +754,14 @@
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>2.7</v>
       </c>
@@ -703,11 +769,14 @@
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>2.8</v>
       </c>
@@ -715,11 +784,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -729,126 +801,144 @@
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1263,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
